--- a/XLSX transformados/AL_Datos_Generales.xlsx
+++ b/XLSX transformados/AL_Datos_Generales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,100 +556,115 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Reclamos Altos</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Salidas Exitosas</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Salidas</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>Pases Acertados en el Último Tercio</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Grandes Oportunidades Creadas</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Pases Acertados</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Pases Clave</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Centros Acertados</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje de Centros Acertados</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Balones Largos Acertados</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje de Balones Largos Acertados</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Intercepciones</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Despejes</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Regateado por el Adversario</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Grandes Oportunidades Falladas</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Tiros Totales</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Tiros al Arco</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Tiros Bloqueados</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje de Conversion de Gol</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Balones al Poste</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Fueras de Juego</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Errores que Llevan a Tiro</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Jugador</t>
         </is>
@@ -666,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>60.87</v>
+        <v>57.69</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,22 +699,22 @@
         <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>87.39</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>56</v>
+        <v>53.57</v>
       </c>
       <c r="O2" t="n">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -711,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -729,63 +744,72 @@
         <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>42.86</v>
+        <v>107</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
         <v>100</v>
       </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>100</v>
       </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Gabriel Costa</t>
         </is>
@@ -796,16 +820,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>54.17</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -820,97 +844,97 @@
         <v>100</v>
       </c>
       <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>85.34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O3" t="n">
+        <v>482</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>86.89</v>
-      </c>
-      <c r="M3" t="n">
-        <v>15</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="O3" t="n">
-        <v>392</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>47.06</v>
+        <v>227</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.17</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AH3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>14.29</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>1</v>
@@ -919,9 +943,18 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="inlineStr">
+        <v>11.11</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Sebastián Rodríguez</t>
         </is>
@@ -929,7 +962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -938,128 +971,137 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="M4" t="n">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="O4" t="n">
+        <v>469</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="R4" t="n">
         <v>7</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N4" t="n">
-        <v>57.58</v>
-      </c>
-      <c r="O4" t="n">
-        <v>450</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
         <v>4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AQ4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>5</v>
       </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>191</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Juan Freytes</t>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Hernán Barcos</t>
         </is>
       </c>
     </row>
@@ -1074,55 +1116,55 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>57.78</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>70.92</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23</v>
+      </c>
+      <c r="N5" t="n">
+        <v>58.97</v>
+      </c>
+      <c r="O5" t="n">
+        <v>540</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
         <v>6</v>
       </c>
-      <c r="I5" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>70.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>30</v>
-      </c>
-      <c r="N5" t="n">
-        <v>58.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>409</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1131,61 +1173,61 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>34.78</v>
+        <v>200</v>
       </c>
       <c r="AE5" t="n">
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>16.67</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="AI5" t="n">
-        <v>3</v>
+        <v>38.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>1</v>
@@ -1193,9 +1235,18 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Kevin Serna</t>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>Juan Freytes</t>
         </is>
       </c>
     </row>
@@ -1210,126 +1261,135 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>43.75</v>
+        <v>42.5</v>
       </c>
       <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>506</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>20</v>
-      </c>
-      <c r="N6" t="n">
-        <v>42.55</v>
-      </c>
-      <c r="O6" t="n">
-        <v>421</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="inlineStr">
+        <v>17.65</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>Cecilio Waterman</t>
         </is>
@@ -1337,7 +1397,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1346,152 +1406,161 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>34.78</v>
+        <v>56</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>23.53</v>
+        <v>66.67</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>42.86</v>
       </c>
       <c r="J7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32</v>
+      </c>
+      <c r="N7" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>499</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30</v>
-      </c>
-      <c r="O7" t="n">
-        <v>424</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AD7" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH7" t="n">
         <v>7</v>
       </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>79</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2</v>
-      </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>46.67</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AM7" t="n">
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>15.38</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Hernán Barcos</t>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Kevin Serna</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>69.56999999999999</v>
+        <v>29.63</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>45.45</v>
+        <v>33.33</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1500,34 +1569,34 @@
         <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>78.48</v>
+        <v>75</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>61.76</v>
+        <v>30.3</v>
       </c>
       <c r="O8" t="n">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
         <v>8</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1539,77 +1608,86 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>7</v>
       </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>Jiovany Ramos</t>
+        <v>28.57</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Catriel Cabellos</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1618,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>29.63</v>
+        <v>73.33</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>33.33</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1636,97 +1714,97 @@
         <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75</v>
+        <v>82.09</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>30.3</v>
+        <v>80</v>
       </c>
       <c r="O9" t="n">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
         <v>6</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>8</v>
       </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>72</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2</v>
-      </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>33.33</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>28.57</v>
+        <v>3</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -1737,9 +1815,18 @@
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Catriel Cabellos</t>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Renzo Garces</t>
         </is>
       </c>
     </row>
@@ -1748,58 +1835,58 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>82.64</v>
+        <v>76.47</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>81.81999999999999</v>
+        <v>57.89</v>
       </c>
       <c r="O10" t="n">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1811,71 +1898,80 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>3</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>Renzo Garces</t>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>Jhamir D´Arrigo</t>
         </is>
       </c>
     </row>
@@ -1890,106 +1986,106 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>27.27</v>
+        <v>29.03</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>69.23</v>
+        <v>68.75</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>78.66</v>
+        <v>75.26000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>42.86</v>
+        <v>42.55</v>
       </c>
       <c r="O11" t="n">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R11" t="n">
         <v>5</v>
       </c>
       <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>4</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
+        <v>143</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="n">
         <v>60</v>
       </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>68.42</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>57.69</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -1998,18 +2094,27 @@
         <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.11</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>Adrián Arregui</t>
         </is>
@@ -2023,55 +2128,55 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>64.29000000000001</v>
+        <v>60.71</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>79.59</v>
+        <v>76.67</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O12" t="n">
-        <v>117</v>
+        <v>426</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2083,58 +2188,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>41.18</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -2145,9 +2250,18 @@
       <c r="AQ12" t="n">
         <v>0</v>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>Jhamir D´Arrigo</t>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Jiovany Ramos</t>
         </is>
       </c>
     </row>
@@ -2156,58 +2270,58 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>80</v>
+        <v>78.89</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>100</v>
+        <v>65.22</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2219,58 +2333,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -2281,9 +2395,18 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Víctor Guzmán</t>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>Aldair Fuentes</t>
         </is>
       </c>
     </row>
@@ -2298,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2316,34 +2439,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>78.89</v>
+        <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>65.22</v>
+        <v>42.86</v>
       </c>
       <c r="O14" t="n">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2355,49 +2478,49 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2417,9 +2540,18 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>Aldair Fuentes</t>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Axel Moyano</t>
         </is>
       </c>
     </row>
@@ -2428,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>33.33</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2452,31 +2584,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>78.95</v>
+        <v>51.16</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>25</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2491,34 +2623,34 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1</v>
-      </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2530,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
         <v>3</v>
@@ -2545,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -2553,9 +2685,18 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>Franco Zanelatto</t>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>Jesús Castillo</t>
         </is>
       </c>
     </row>
@@ -2564,58 +2705,58 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>51.43</v>
+        <v>66.67</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O16" t="n">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2627,29 +2768,29 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>4</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
@@ -2657,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -2678,20 +2819,29 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>Jesús Castillo</t>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>Víctor Guzmán</t>
         </is>
       </c>
     </row>
@@ -2700,22 +2850,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>28.57</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2724,34 +2874,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>42.86</v>
+        <v>30</v>
       </c>
       <c r="O17" t="n">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2775,31 +2925,31 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
@@ -2814,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
@@ -2825,9 +2975,18 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>Axel Moyano</t>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>Franco Zanelatto</t>
         </is>
       </c>
     </row>
@@ -2905,40 +3064,40 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>7</v>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
         <v>25</v>
       </c>
-      <c r="AG18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -2961,7 +3120,16 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>Marco Huaman</t>
         </is>
@@ -2972,23 +3140,23 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
+        <v>25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
         <v>50</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
@@ -3002,104 +3170,113 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>40.91</v>
+        <v>64.77</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="O19" t="n">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="n">
         <v>4</v>
       </c>
-      <c r="AF19" t="n">
-        <v>25</v>
-      </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>Ángel De la Cruz</t>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Ricardo Lagos</t>
         </is>
       </c>
     </row>
@@ -3108,16 +3285,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3138,19 +3315,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>78.95</v>
+        <v>35.42</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O20" t="n">
-        <v>359</v>
+        <v>150</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -3159,17 +3336,17 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
         <v>4</v>
       </c>
-      <c r="T20" t="n">
-        <v>4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
       <c r="W20" t="n">
         <v>2</v>
       </c>
@@ -3183,34 +3360,34 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>58.82</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
@@ -3231,11 +3408,20 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>Franco Saravia</t>
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Ángel De la Cruz</t>
         </is>
       </c>
     </row>
@@ -3247,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -3274,37 +3460,37 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>64.77</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
@@ -3313,49 +3499,49 @@
         <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="AE21" t="n">
         <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>52.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -3369,9 +3555,18 @@
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>Ricardo Lagos</t>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Franco Saravia</t>
         </is>
       </c>
     </row>
